--- a/Tenacibaculosis.xlsx
+++ b/Tenacibaculosis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Constanza\Documents\Diplomado R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B656B43-58ED-41B1-87DA-8E36148C9795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048507AF-BFE9-4F34-BA3C-126AD98D0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Ingreso</t>
   </si>
@@ -182,22 +182,16 @@
     <t>Centro</t>
   </si>
   <si>
-    <t>Número Ingreso</t>
-  </si>
-  <si>
-    <t>Peso prom. Ingreso [g]</t>
-  </si>
-  <si>
-    <t>Mortalidad total</t>
-  </si>
-  <si>
-    <t>Mort. Tenacibaculosis</t>
-  </si>
-  <si>
     <t>Mort. Maduro</t>
   </si>
   <si>
     <t xml:space="preserve">Mort. SRS </t>
+  </si>
+  <si>
+    <t>Peso_g</t>
+  </si>
+  <si>
+    <t>Mort_Tena</t>
   </si>
 </sst>
 </file>
@@ -902,7 +896,7 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,8 +905,10 @@
     <col min="2" max="2" width="15.5703125" style="17" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.42578125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="17"/>
+    <col min="5" max="5" width="16.28515625" style="17" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -920,22 +916,22 @@
         <v>52</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>7</v>
